--- a/26-10-2023.xlsx
+++ b/26-10-2023.xlsx
@@ -7,23 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="S217" sheetId="1" r:id="rId1"/>
-    <sheet name="218" sheetId="2" r:id="rId2"/>
-    <sheet name="g17" sheetId="3" r:id="rId3"/>
-    <sheet name="g15" sheetId="4" r:id="rId4"/>
-    <sheet name="f115" sheetId="5" r:id="rId5"/>
-    <sheet name="f111" sheetId="6" r:id="rId6"/>
-    <sheet name="d112" sheetId="7" r:id="rId7"/>
-    <sheet name="g19" sheetId="8" r:id="rId8"/>
-    <sheet name="s220" sheetId="9" r:id="rId9"/>
-    <sheet name="g12" sheetId="10" r:id="rId10"/>
+    <sheet name="S216" sheetId="1" r:id="rId1"/>
+    <sheet name="G14" sheetId="2" r:id="rId2"/>
+    <sheet name="G15" sheetId="3" r:id="rId3"/>
+    <sheet name="S219" sheetId="4" r:id="rId4"/>
+    <sheet name="G13" sheetId="5" r:id="rId5"/>
+    <sheet name="123" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
   <si>
     <t>Date = 26-10-2023</t>
   </si>
@@ -31,7 +27,7 @@
     <t>Time = 10:00 AM</t>
   </si>
   <si>
-    <t>S217</t>
+    <t>S216</t>
   </si>
   <si>
     <t>D4CSE_DWDM</t>
@@ -40,31 +36,25 @@
     <t>D3CSE_URN</t>
   </si>
   <si>
-    <t>218</t>
+    <t>D4CSE_NSC</t>
   </si>
   <si>
-    <t>g17</t>
+    <t>G14</t>
   </si>
   <si>
-    <t>g15</t>
+    <t>G15</t>
   </si>
   <si>
-    <t>f115</t>
+    <t>S219</t>
   </si>
   <si>
-    <t>f111</t>
+    <t>G13</t>
   </si>
   <si>
-    <t>d112</t>
+    <t>D4CSE_NLP</t>
   </si>
   <si>
-    <t>g19</t>
-  </si>
-  <si>
-    <t>s220</t>
-  </si>
-  <si>
-    <t>g12</t>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -405,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,16 +422,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -452,16 +442,16 @@
         <v>21000</v>
       </c>
       <c r="C5">
-        <v>1111008</v>
+        <v>3333000</v>
       </c>
       <c r="D5">
-        <v>21008</v>
+        <v>1111010</v>
       </c>
       <c r="E5">
-        <v>1111016</v>
+        <v>21011</v>
       </c>
       <c r="F5">
-        <v>21015</v>
+        <v>3333009</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -472,16 +462,16 @@
         <v>21001</v>
       </c>
       <c r="C6">
-        <v>1111009</v>
+        <v>3333001</v>
       </c>
       <c r="D6">
-        <v>21009</v>
+        <v>1111011</v>
       </c>
       <c r="E6">
-        <v>1111017</v>
+        <v>21012</v>
       </c>
       <c r="F6">
-        <v>21016</v>
+        <v>3333010</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -492,16 +482,16 @@
         <v>21002</v>
       </c>
       <c r="C7">
-        <v>1111010</v>
+        <v>3333002</v>
       </c>
       <c r="D7">
-        <v>21010</v>
+        <v>1111012</v>
       </c>
       <c r="E7">
-        <v>1111018</v>
+        <v>21013</v>
       </c>
       <c r="F7">
-        <v>21017</v>
+        <v>3333011</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -512,16 +502,16 @@
         <v>21003</v>
       </c>
       <c r="C8">
-        <v>1111011</v>
+        <v>3333003</v>
       </c>
       <c r="D8">
-        <v>21011</v>
+        <v>1111013</v>
       </c>
       <c r="E8">
-        <v>1111019</v>
+        <v>21014</v>
       </c>
       <c r="F8">
-        <v>21018</v>
+        <v>3333012</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -532,16 +522,16 @@
         <v>21004</v>
       </c>
       <c r="C9">
-        <v>1111012</v>
+        <v>3333004</v>
       </c>
       <c r="D9">
-        <v>21012</v>
+        <v>1111014</v>
       </c>
       <c r="E9">
-        <v>1111020</v>
+        <v>21015</v>
       </c>
       <c r="F9">
-        <v>21019</v>
+        <v>3333013</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -552,16 +542,16 @@
         <v>21005</v>
       </c>
       <c r="C10">
-        <v>1111013</v>
+        <v>3333005</v>
       </c>
       <c r="D10">
-        <v>21013</v>
+        <v>1111015</v>
       </c>
       <c r="E10">
-        <v>1111021</v>
+        <v>21016</v>
       </c>
       <c r="F10">
-        <v>21020</v>
+        <v>3333014</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -572,16 +562,16 @@
         <v>21006</v>
       </c>
       <c r="C11">
-        <v>1111014</v>
+        <v>3333006</v>
       </c>
       <c r="D11">
-        <v>21014</v>
+        <v>1111016</v>
       </c>
       <c r="E11">
-        <v>1111022</v>
+        <v>21017</v>
       </c>
       <c r="F11">
-        <v>21021</v>
+        <v>3333015</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -592,33 +582,49 @@
         <v>21007</v>
       </c>
       <c r="C12">
-        <v>1111015</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:6" ht="30" customHeight="1">
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
+        <v>3333007</v>
+      </c>
+      <c r="D12">
+        <v>1111017</v>
+      </c>
+      <c r="E12">
+        <v>21018</v>
+      </c>
+      <c r="F12">
+        <v>3333016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>1111008</v>
+      </c>
+      <c r="B13">
+        <v>21008</v>
+      </c>
+      <c r="C13">
+        <v>3333008</v>
+      </c>
+      <c r="D13">
+        <v>1111018</v>
+      </c>
+      <c r="E13">
+        <v>21019</v>
+      </c>
+      <c r="F13">
+        <v>3333017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>1111009</v>
+      </c>
+      <c r="B14">
+        <v>21009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15">
+        <v>21010</v>
       </c>
     </row>
   </sheetData>
@@ -628,166 +634,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>1111023</v>
-      </c>
-      <c r="B5">
-        <v>21022</v>
-      </c>
-      <c r="C5">
-        <v>1111030</v>
-      </c>
-      <c r="D5">
-        <v>21027</v>
-      </c>
-      <c r="E5">
-        <v>1111035</v>
-      </c>
-      <c r="F5">
-        <v>21033</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>1111024</v>
-      </c>
-      <c r="B6">
-        <v>21023</v>
-      </c>
-      <c r="C6">
-        <v>1111031</v>
-      </c>
-      <c r="D6">
-        <v>21028</v>
-      </c>
-      <c r="E6">
-        <v>1111036</v>
-      </c>
-      <c r="F6">
-        <v>21034</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>1111025</v>
-      </c>
-      <c r="B7">
-        <v>21024</v>
-      </c>
-      <c r="C7">
-        <v>1111032</v>
-      </c>
-      <c r="D7">
-        <v>21029</v>
-      </c>
-      <c r="E7">
-        <v>1111037</v>
-      </c>
-      <c r="F7">
-        <v>21035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>1111026</v>
-      </c>
-      <c r="B8">
-        <v>21025</v>
-      </c>
-      <c r="C8">
-        <v>1111033</v>
-      </c>
-      <c r="D8">
-        <v>21030</v>
-      </c>
-      <c r="E8">
-        <v>1111038</v>
-      </c>
-      <c r="F8">
-        <v>21036</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>1111027</v>
-      </c>
-      <c r="B9">
-        <v>21026</v>
-      </c>
-      <c r="C9">
-        <v>1111034</v>
-      </c>
-      <c r="D9">
-        <v>21031</v>
-      </c>
-      <c r="E9">
-        <v>1111039</v>
-      </c>
-      <c r="F9">
-        <v>21037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>1111028</v>
-      </c>
-      <c r="D10">
-        <v>21032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>1111029</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -814,135 +661,372 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1111040</v>
+        <v>1111019</v>
       </c>
       <c r="B5">
-        <v>21038</v>
+        <v>21020</v>
       </c>
       <c r="C5">
-        <v>1111046</v>
+        <v>3333018</v>
       </c>
       <c r="D5">
-        <v>21044</v>
+        <v>1111027</v>
       </c>
       <c r="E5">
-        <v>1111053</v>
+        <v>21028</v>
       </c>
       <c r="F5">
-        <v>21049</v>
+        <v>3333026</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1111041</v>
+        <v>1111020</v>
       </c>
       <c r="B6">
-        <v>21039</v>
+        <v>21021</v>
       </c>
       <c r="C6">
-        <v>1111047</v>
+        <v>3333019</v>
       </c>
       <c r="D6">
-        <v>21045</v>
+        <v>1111028</v>
       </c>
       <c r="E6">
-        <v>1111054</v>
+        <v>21029</v>
       </c>
       <c r="F6">
-        <v>21050</v>
+        <v>3333027</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>1111042</v>
+        <v>1111021</v>
       </c>
       <c r="B7">
-        <v>21040</v>
+        <v>21022</v>
       </c>
       <c r="C7">
-        <v>1111048</v>
+        <v>3333020</v>
       </c>
       <c r="D7">
-        <v>21046</v>
+        <v>1111029</v>
       </c>
       <c r="E7">
-        <v>1111055</v>
+        <v>21030</v>
       </c>
       <c r="F7">
-        <v>21051</v>
+        <v>3333028</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>1111043</v>
+        <v>1111022</v>
       </c>
       <c r="B8">
-        <v>21041</v>
+        <v>21023</v>
       </c>
       <c r="C8">
-        <v>1111049</v>
+        <v>3333021</v>
       </c>
       <c r="D8">
-        <v>21047</v>
+        <v>1111030</v>
       </c>
       <c r="E8">
-        <v>1111056</v>
+        <v>21031</v>
       </c>
       <c r="F8">
-        <v>21052</v>
+        <v>3333029</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>1111044</v>
+        <v>1111023</v>
       </c>
       <c r="B9">
-        <v>21042</v>
+        <v>21024</v>
       </c>
       <c r="C9">
-        <v>1111050</v>
+        <v>3333022</v>
       </c>
       <c r="D9">
-        <v>21048</v>
+        <v>1111031</v>
       </c>
       <c r="E9">
-        <v>1111057</v>
+        <v>21032</v>
       </c>
       <c r="F9">
-        <v>21053</v>
+        <v>3333030</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
+        <v>1111024</v>
+      </c>
+      <c r="B10">
+        <v>21025</v>
+      </c>
+      <c r="C10">
+        <v>3333023</v>
+      </c>
+      <c r="D10">
+        <v>1111032</v>
+      </c>
+      <c r="E10">
+        <v>21033</v>
+      </c>
+      <c r="F10">
+        <v>3333031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>1111025</v>
+      </c>
+      <c r="B11">
+        <v>21026</v>
+      </c>
+      <c r="C11">
+        <v>3333024</v>
+      </c>
+      <c r="D11">
+        <v>1111033</v>
+      </c>
+      <c r="E11">
+        <v>21034</v>
+      </c>
+      <c r="F11">
+        <v>3333032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>1111026</v>
+      </c>
+      <c r="B12">
+        <v>21027</v>
+      </c>
+      <c r="C12">
+        <v>3333025</v>
+      </c>
+      <c r="D12">
+        <v>1111034</v>
+      </c>
+      <c r="E12">
+        <v>21035</v>
+      </c>
+      <c r="F12">
+        <v>3333033</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1">
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1111035</v>
+      </c>
+      <c r="B5">
+        <v>21036</v>
+      </c>
+      <c r="C5">
+        <v>3333034</v>
+      </c>
+      <c r="D5">
+        <v>1111042</v>
+      </c>
+      <c r="E5">
+        <v>21043</v>
+      </c>
+      <c r="F5">
+        <v>3333041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1111036</v>
+      </c>
+      <c r="B6">
+        <v>21037</v>
+      </c>
+      <c r="C6">
+        <v>3333035</v>
+      </c>
+      <c r="D6">
+        <v>1111043</v>
+      </c>
+      <c r="E6">
+        <v>21044</v>
+      </c>
+      <c r="F6">
+        <v>3333042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1111037</v>
+      </c>
+      <c r="B7">
+        <v>21038</v>
+      </c>
+      <c r="C7">
+        <v>3333036</v>
+      </c>
+      <c r="D7">
+        <v>1111044</v>
+      </c>
+      <c r="E7">
+        <v>21045</v>
+      </c>
+      <c r="F7">
+        <v>3333043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>1111038</v>
+      </c>
+      <c r="B8">
+        <v>21039</v>
+      </c>
+      <c r="C8">
+        <v>3333037</v>
+      </c>
+      <c r="D8">
         <v>1111045</v>
       </c>
+      <c r="E8">
+        <v>21046</v>
+      </c>
+      <c r="F8">
+        <v>3333044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1111039</v>
+      </c>
+      <c r="B9">
+        <v>21040</v>
+      </c>
+      <c r="C9">
+        <v>3333038</v>
+      </c>
+      <c r="D9">
+        <v>1111046</v>
+      </c>
+      <c r="E9">
+        <v>21047</v>
+      </c>
+      <c r="F9">
+        <v>3333045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1111040</v>
+      </c>
       <c r="B10">
-        <v>21043</v>
+        <v>21041</v>
       </c>
       <c r="C10">
-        <v>1111051</v>
+        <v>3333039</v>
+      </c>
+      <c r="D10">
+        <v>1111047</v>
+      </c>
+      <c r="E10">
+        <v>21048</v>
       </c>
       <c r="F10">
-        <v>21054</v>
+        <v>3333046</v>
       </c>
     </row>
     <row r="11" spans="1:6">
+      <c r="A11">
+        <v>1111041</v>
+      </c>
+      <c r="B11">
+        <v>21042</v>
+      </c>
       <c r="C11">
-        <v>1111052</v>
+        <v>3333040</v>
+      </c>
+      <c r="D11">
+        <v>1111048</v>
+      </c>
+      <c r="E11">
+        <v>21049</v>
+      </c>
+      <c r="F11">
+        <v>3333047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12">
+        <v>3333048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="F13">
+        <v>3333049</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1044,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -979,95 +1063,140 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1111058</v>
+        <v>1111049</v>
       </c>
       <c r="B5">
+        <v>21050</v>
+      </c>
+      <c r="C5">
+        <v>3333050</v>
+      </c>
+      <c r="D5">
+        <v>1111054</v>
+      </c>
+      <c r="E5">
         <v>21055</v>
       </c>
-      <c r="C5">
-        <v>1111065</v>
-      </c>
-      <c r="E5">
-        <v>21063</v>
+      <c r="F5">
+        <v>3333055</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1111059</v>
+        <v>1111050</v>
       </c>
       <c r="B6">
+        <v>21051</v>
+      </c>
+      <c r="C6">
+        <v>3333051</v>
+      </c>
+      <c r="D6">
+        <v>1111055</v>
+      </c>
+      <c r="E6">
         <v>21056</v>
       </c>
-      <c r="C6">
-        <v>1111066</v>
-      </c>
-      <c r="E6">
-        <v>21064</v>
+      <c r="F6">
+        <v>3333056</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>1111060</v>
+        <v>1111051</v>
       </c>
       <c r="B7">
+        <v>21052</v>
+      </c>
+      <c r="C7">
+        <v>3333052</v>
+      </c>
+      <c r="D7">
+        <v>1111056</v>
+      </c>
+      <c r="E7">
         <v>21057</v>
       </c>
-      <c r="C7">
-        <v>1111067</v>
-      </c>
-      <c r="E7">
-        <v>21065</v>
+      <c r="F7">
+        <v>3333057</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>1111061</v>
+        <v>1111052</v>
       </c>
       <c r="B8">
+        <v>21053</v>
+      </c>
+      <c r="C8">
+        <v>3333053</v>
+      </c>
+      <c r="D8">
+        <v>1111057</v>
+      </c>
+      <c r="E8">
         <v>21058</v>
       </c>
-      <c r="C8">
-        <v>1111068</v>
-      </c>
-      <c r="E8">
-        <v>21066</v>
+      <c r="F8">
+        <v>3333058</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>1111062</v>
+        <v>1111053</v>
       </c>
       <c r="B9">
+        <v>21054</v>
+      </c>
+      <c r="C9">
+        <v>3333054</v>
+      </c>
+      <c r="D9">
+        <v>1111058</v>
+      </c>
+      <c r="E9">
         <v>21059</v>
       </c>
+      <c r="F9">
+        <v>3333059</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
-        <v>1111063</v>
-      </c>
-      <c r="B10">
+      <c r="E10">
         <v>21060</v>
       </c>
+      <c r="F10">
+        <v>3333060</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
-        <v>1111064</v>
-      </c>
-      <c r="B11">
+      <c r="E11">
         <v>21061</v>
       </c>
+      <c r="F11">
+        <v>3333061</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12">
+      <c r="E12">
         <v>21062</v>
+      </c>
+      <c r="F12">
+        <v>3333062</v>
       </c>
     </row>
   </sheetData>
@@ -1077,122 +1206,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>21067</v>
-      </c>
-      <c r="C5">
-        <v>21076</v>
-      </c>
-      <c r="E5">
-        <v>21082</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>21068</v>
-      </c>
-      <c r="C6">
-        <v>21077</v>
-      </c>
-      <c r="E6">
-        <v>21083</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>21069</v>
-      </c>
-      <c r="C7">
-        <v>21078</v>
-      </c>
-      <c r="E7">
-        <v>21084</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>21070</v>
-      </c>
-      <c r="C8">
-        <v>21079</v>
-      </c>
-      <c r="E8">
-        <v>21085</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>21071</v>
-      </c>
-      <c r="C9">
-        <v>21080</v>
-      </c>
-      <c r="E9">
-        <v>21086</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>21072</v>
-      </c>
-      <c r="C10">
-        <v>21081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>21073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>21074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>21075</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1213,86 +1227,201 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>21087</v>
+        <v>1111059</v>
+      </c>
+      <c r="B5">
+        <v>21063</v>
       </c>
       <c r="C5">
-        <v>21092</v>
+        <v>3333063</v>
+      </c>
+      <c r="D5">
+        <v>4444000</v>
       </c>
       <c r="E5">
-        <v>21100</v>
+        <v>21073</v>
+      </c>
+      <c r="F5">
+        <v>4444009</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>21088</v>
+        <v>1111060</v>
+      </c>
+      <c r="B6">
+        <v>21064</v>
       </c>
       <c r="C6">
-        <v>21093</v>
+        <v>3333064</v>
+      </c>
+      <c r="D6">
+        <v>4444001</v>
       </c>
       <c r="E6">
-        <v>21101</v>
+        <v>21074</v>
+      </c>
+      <c r="F6">
+        <v>4444010</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>21089</v>
+        <v>1111061</v>
+      </c>
+      <c r="B7">
+        <v>21065</v>
       </c>
       <c r="C7">
-        <v>21094</v>
+        <v>3333065</v>
+      </c>
+      <c r="D7">
+        <v>4444002</v>
       </c>
       <c r="E7">
-        <v>21102</v>
+        <v>21075</v>
+      </c>
+      <c r="F7">
+        <v>4444011</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>21090</v>
+        <v>1111062</v>
+      </c>
+      <c r="B8">
+        <v>21066</v>
       </c>
       <c r="C8">
-        <v>21095</v>
+        <v>3333066</v>
+      </c>
+      <c r="D8">
+        <v>4444003</v>
       </c>
       <c r="E8">
-        <v>21103</v>
+        <v>21076</v>
+      </c>
+      <c r="F8">
+        <v>4444012</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>21091</v>
+        <v>1111063</v>
+      </c>
+      <c r="B9">
+        <v>21067</v>
       </c>
       <c r="C9">
-        <v>21096</v>
+        <v>3333067</v>
+      </c>
+      <c r="D9">
+        <v>4444004</v>
       </c>
       <c r="E9">
-        <v>21104</v>
+        <v>21077</v>
+      </c>
+      <c r="F9">
+        <v>4444013</v>
       </c>
     </row>
     <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1111064</v>
+      </c>
+      <c r="B10">
+        <v>21068</v>
+      </c>
       <c r="C10">
-        <v>21097</v>
+        <v>3333068</v>
+      </c>
+      <c r="D10">
+        <v>4444005</v>
       </c>
       <c r="E10">
-        <v>21105</v>
+        <v>21078</v>
+      </c>
+      <c r="F10">
+        <v>4444014</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="C11">
-        <v>21098</v>
+      <c r="A11">
+        <v>1111065</v>
+      </c>
+      <c r="B11">
+        <v>21069</v>
+      </c>
+      <c r="D11">
+        <v>4444006</v>
+      </c>
+      <c r="E11">
+        <v>21079</v>
+      </c>
+      <c r="F11">
+        <v>4444015</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="C12">
-        <v>21099</v>
+      <c r="A12">
+        <v>1111066</v>
+      </c>
+      <c r="B12">
+        <v>21070</v>
+      </c>
+      <c r="D12">
+        <v>4444007</v>
+      </c>
+      <c r="E12">
+        <v>21080</v>
+      </c>
+      <c r="F12">
+        <v>4444016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>1111067</v>
+      </c>
+      <c r="B13">
+        <v>21071</v>
+      </c>
+      <c r="D13">
+        <v>4444008</v>
+      </c>
+      <c r="E13">
+        <v>21081</v>
+      </c>
+      <c r="F13">
+        <v>4444017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>1111068</v>
+      </c>
+      <c r="B14">
+        <v>21072</v>
       </c>
     </row>
   </sheetData>
@@ -1300,134 +1429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>21106</v>
-      </c>
-      <c r="C5">
-        <v>21115</v>
-      </c>
-      <c r="E5">
-        <v>21123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>21107</v>
-      </c>
-      <c r="C6">
-        <v>21116</v>
-      </c>
-      <c r="E6">
-        <v>21124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>21108</v>
-      </c>
-      <c r="C7">
-        <v>21117</v>
-      </c>
-      <c r="E7">
-        <v>21125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>21109</v>
-      </c>
-      <c r="C8">
-        <v>21118</v>
-      </c>
-      <c r="E8">
-        <v>21126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>21110</v>
-      </c>
-      <c r="C9">
-        <v>21119</v>
-      </c>
-      <c r="E9">
-        <v>21127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>21111</v>
-      </c>
-      <c r="C10">
-        <v>21120</v>
-      </c>
-      <c r="E10">
-        <v>21128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>21112</v>
-      </c>
-      <c r="C11">
-        <v>21121</v>
-      </c>
-      <c r="E11">
-        <v>21129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>21113</v>
-      </c>
-      <c r="C12">
-        <v>21122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>21114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1452,157 +1454,184 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>21130</v>
+        <v>21082</v>
+      </c>
+      <c r="B5">
+        <v>4444018</v>
       </c>
       <c r="C5">
-        <v>21140</v>
+        <v>21092</v>
+      </c>
+      <c r="D5">
+        <v>4444026</v>
       </c>
       <c r="E5">
-        <v>21148</v>
+        <v>21098</v>
+      </c>
+      <c r="F5">
+        <v>4444035</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>21131</v>
+        <v>21083</v>
+      </c>
+      <c r="B6">
+        <v>4444019</v>
       </c>
       <c r="C6">
-        <v>21141</v>
+        <v>21093</v>
+      </c>
+      <c r="D6">
+        <v>4444027</v>
       </c>
       <c r="E6">
-        <v>21149</v>
+        <v>21099</v>
+      </c>
+      <c r="F6">
+        <v>4444036</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>21132</v>
+        <v>21084</v>
+      </c>
+      <c r="B7">
+        <v>4444020</v>
       </c>
       <c r="C7">
-        <v>21142</v>
+        <v>21094</v>
+      </c>
+      <c r="D7">
+        <v>4444028</v>
       </c>
       <c r="E7">
-        <v>21150</v>
+        <v>21100</v>
+      </c>
+      <c r="F7">
+        <v>4444037</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>21133</v>
+        <v>21085</v>
+      </c>
+      <c r="B8">
+        <v>4444021</v>
       </c>
       <c r="C8">
-        <v>21143</v>
+        <v>21095</v>
+      </c>
+      <c r="D8">
+        <v>4444029</v>
       </c>
       <c r="E8">
-        <v>21151</v>
+        <v>21101</v>
+      </c>
+      <c r="F8">
+        <v>4444038</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>21134</v>
+        <v>21086</v>
+      </c>
+      <c r="B9">
+        <v>4444022</v>
       </c>
       <c r="C9">
-        <v>21144</v>
+        <v>21096</v>
+      </c>
+      <c r="D9">
+        <v>4444030</v>
       </c>
       <c r="E9">
-        <v>21152</v>
+        <v>21102</v>
+      </c>
+      <c r="F9">
+        <v>4444039</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>21135</v>
+        <v>21087</v>
+      </c>
+      <c r="B10">
+        <v>4444023</v>
       </c>
       <c r="C10">
-        <v>21145</v>
+        <v>21097</v>
+      </c>
+      <c r="D10">
+        <v>4444031</v>
       </c>
       <c r="E10">
-        <v>21153</v>
+        <v>21103</v>
+      </c>
+      <c r="F10">
+        <v>4444040</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>21136</v>
-      </c>
-      <c r="C11">
-        <v>21146</v>
+        <v>21088</v>
+      </c>
+      <c r="B11">
+        <v>4444024</v>
+      </c>
+      <c r="D11">
+        <v>4444032</v>
       </c>
       <c r="E11">
-        <v>21154</v>
+        <v>21104</v>
+      </c>
+      <c r="F11">
+        <v>4444041</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>21137</v>
-      </c>
-      <c r="C12">
-        <v>21147</v>
+        <v>21089</v>
+      </c>
+      <c r="B12">
+        <v>4444025</v>
+      </c>
+      <c r="D12">
+        <v>4444033</v>
+      </c>
+      <c r="F12">
+        <v>4444042</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>21138</v>
+        <v>21090</v>
+      </c>
+      <c r="D13">
+        <v>4444034</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>21139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>21155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>21156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>21157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>21158</v>
+        <v>21091</v>
       </c>
     </row>
   </sheetData>
